--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/ClearingRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/ClearingRanges.xlsx
@@ -621,7 +621,6 @@
       <x:c r="G1" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="H1" s="0" t="s"/>
       <x:c r="I1" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
@@ -642,7 +641,6 @@
       <x:c r="G2" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="H2" s="0" t="s"/>
       <x:c r="I2" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
@@ -669,7 +667,6 @@
       <x:c r="G3" s="1" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="H3" s="0" t="s"/>
       <x:c r="I3" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
@@ -690,7 +687,6 @@
       <x:c r="G4" s="1" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="H4" s="0" t="s"/>
       <x:c r="I4" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
@@ -720,7 +716,6 @@
       <x:c r="G5" s="1" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="H5" s="0" t="s"/>
       <x:c r="I5" s="1" t="s">
         <x:v>33</x:v>
       </x:c>
@@ -750,7 +745,6 @@
       <x:c r="G6" s="1" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="H6" s="0" t="s"/>
       <x:c r="I6" s="1" t="s">
         <x:v>42</x:v>
       </x:c>
@@ -758,9 +752,7 @@
         <x:v>43</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:10">
-      <x:c r="H7" s="0" t="s"/>
-    </x:row>
+    <x:row r="7" spans="1:10"/>
     <x:row r="8" spans="1:10">
       <x:c r="A8" s="1" t="s">
         <x:v>44</x:v>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/ClearingRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/ClearingRanges.xlsx
@@ -602,10 +602,9 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="9" max="16384" width="9.850625" style="0" customWidth="1"/>
-    <x:col min="1" max="8" width="9.850625" style="0" customWidth="1"/>
+    <x:col min="1" max="8" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:10">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/ClearingRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/ClearingRanges.xlsx
@@ -286,8 +286,11 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="2">
+  <x:cellStyleXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/ClearingRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/ClearingRanges.xlsx
@@ -846,14 +846,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/ClearingRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/ClearingRanges.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <x:bookViews>
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/ClearingRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/ClearingRanges.xlsx
@@ -236,7 +236,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="2">
+  <x:fonts count="3">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -246,6 +246,13 @@
     </x:font>
     <x:font>
       <x:b/>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/ClearingRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/ClearingRanges.xlsx
@@ -610,7 +610,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:J10"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/ClearingRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/ClearingRanges.xlsx
@@ -294,22 +294,22 @@
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="3">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="2">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
